--- a/project/CRUD_Matrix.xlsx
+++ b/project/CRUD_Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pupil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmitrii\Desktop\uchebka\SQL_lessons\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -355,7 +355,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,9 +371,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +411,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -483,7 +483,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,24 +635,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -842,7 +843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
